--- a/LC-Plan_tests_acceptation-P5.xlsx
+++ b/LC-Plan_tests_acceptation-P5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Fonction "addToCart" lignes 42 à 75 de la page product.js</t>
   </si>
   <si>
-    <t xml:space="preserve">Crée la fiche du produit ou actualiser la quantité de produit à ajouter au panier selon une clé de référence "productReference" (ID + couleur) </t>
-  </si>
-  <si>
-    <t>Lorsqu'on ajoute plusieurs fois le même produit (même ID + même couleur), seule la quantité varie, autrement un nouvel élément est ajouté au panier</t>
-  </si>
-  <si>
     <t>Fonction "increaseItem" lignes 78 à 88 de la page product.js</t>
   </si>
   <si>
@@ -121,6 +115,39 @@
   </si>
   <si>
     <t>Affiche un message de confirmation de commande et indiquant le numéro de commande</t>
+  </si>
+  <si>
+    <t>Problème possible</t>
+  </si>
+  <si>
+    <t>Les produits ne s'affichent pas ou mal (image du produit, nom du produit ou description mal absente ou présentant des erreurs)</t>
+  </si>
+  <si>
+    <t>Les produits s'affichent correctement sous forme de vignette sur la page (l’image d'un produit, ainsi que son nom et le début de sa description)</t>
+  </si>
+  <si>
+    <t>Affichage des informations complètes d'un seul produit et permet via un menu déroulant de choisir une option de personnalisation de couleur, ainsi qu’un input pour saisir la quantité</t>
+  </si>
+  <si>
+    <t>Certaines informations pourraient mal s'afficher ou présenter des erreurs ou encore l'option de choix de couleur pourrait être vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crée la fiche du produit ou actualise la quantité de produit à ajouter au panier selon une clé de référence "productReference" (ID + couleur) </t>
+  </si>
+  <si>
+    <t>Lorsqu'on ajoute plusieurs fois le même produit (même ID + même couleur), seule la quantité varie, autrement un nouvel élément est ajouté au panier. Observable par un console.log(newItemJSON).</t>
+  </si>
+  <si>
+    <t>La quantité totale d'un produit peut être suppérieur à 100 si on ajoute au panier plusieurs fois le même produit (ex: on ajoute 80 unités une première fois puis 70 une seconde fois, ce qui porte un total d'article à 150 sans posé de problème)</t>
+  </si>
+  <si>
+    <t>Le produit est ajouté au panier ou plutôt au localStorage. On peut vérifier cela en vérifiant le contenu du localStorage depuis la console.</t>
+  </si>
+  <si>
+    <t>Le produit ne s'ajoute pas au localStorage</t>
+  </si>
+  <si>
+    <t>Les éléments de saisie 'quantité et couleur) pourraient ne pas être pris en compte lors de l'ajout</t>
   </si>
 </sst>
 </file>
@@ -149,7 +176,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -362,64 +395,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -495,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -518,19 +493,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,32 +526,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -806,22 +778,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="19" customWidth="1"/>
     <col min="2" max="3" width="58.44140625" customWidth="1"/>
     <col min="4" max="4" width="57.88671875" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="5" max="6" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A1" s="19"/>
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A1" s="16"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,9 +806,12 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34.799999999999997">
-      <c r="A2" s="20">
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="69.599999999999994">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -848,261 +823,252 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.799999999999997">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="34.799999999999997">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="87">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="104.4">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="69.599999999999994">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="104.4">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69.599999999999994">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="34.799999999999997">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34.799999999999997">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="34.799999999999997">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="52.2">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="87">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="B16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="104.4">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="69.599999999999994">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="87">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69.599999999999994">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34.799999999999997">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="52.2">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999">
-      <c r="A17" s="21">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
-      <c r="A18" s="20">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.399999999999999">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999">
-      <c r="A22" s="20">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999">
-      <c r="A23" s="22"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
-    </row>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.2"/>
+    <row r="20" spans="1:6" ht="13.2"/>
+    <row r="21" spans="1:6" ht="13.2"/>
+    <row r="22" spans="1:6" ht="13.2"/>
+    <row r="23" spans="1:6" ht="13.2"/>
+    <row r="24" spans="1:6" ht="13.2"/>
+    <row r="25" spans="1:6" ht="13.2"/>
+    <row r="26" spans="1:6" ht="13.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
